--- a/biology/Zoologie/Calocalanus/Calocalanus.xlsx
+++ b/biology/Zoologie/Calocalanus/Calocalanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calocalanus est un genre de crustacés copépodes de l'ordre des Calanoida et de la famille des Calocalanidae.
 Pour World Register of Marine Species (WoRMS), le taxon fait partie de la famille des Paracalanidae Giesbrecht, 1893.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Calocalanus adriaticus Shmeleva, 1965
 Calocalanus contractus Farran, 1926
